--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2028,7 +2028,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
 </t>
   </si>
   <si>
@@ -30521,7 +30521,7 @@
         <v>48</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L244" t="s" s="2">
         <v>147</v>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -30521,7 +30521,7 @@
         <v>48</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L244" t="s" s="2">
         <v>147</v>
@@ -34147,7 +34147,7 @@
         <v>48</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L276" t="s" s="2">
         <v>147</v>
@@ -37771,7 +37771,7 @@
         <v>48</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L308" t="s" s="2">
         <v>147</v>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2028,7 +2028,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
 </t>
   </si>
   <si>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -30521,7 +30521,7 @@
         <v>48</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L244" t="s" s="2">
         <v>147</v>
@@ -34147,7 +34147,7 @@
         <v>48</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L276" t="s" s="2">
         <v>147</v>
@@ -37771,7 +37771,7 @@
         <v>48</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L308" t="s" s="2">
         <v>147</v>

--- a/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
